--- a/src/_static/xlsx/tab_aggiornamenti_alla_documentazione_tecnica.xlsx
+++ b/src/_static/xlsx/tab_aggiornamenti_alla_documentazione_tecnica.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="99">
   <si>
     <t>documenti aggiornati</t>
   </si>
@@ -251,6 +251,66 @@
   </si>
   <si>
     <t>DatiIscrizione.xlsx</t>
+  </si>
+  <si>
+    <t>Modifica tracciato vocabolarioSubentro.xsd per la trasmissione di più cittadinanze</t>
+  </si>
+  <si>
+    <t>Scioglimento matrimonio</t>
+  </si>
+  <si>
+    <t>Sentenza.xlsx</t>
+  </si>
+  <si>
+    <t>Estensione dell'oggetto sentenza anche per divorzio breve</t>
+  </si>
+  <si>
+    <t>tabella 32_tipo_tribunale</t>
+  </si>
+  <si>
+    <t>Aggiunto codice 4: Avvocato/Notaio</t>
+  </si>
+  <si>
+    <t>tabella_43_tipo_cessazione_unioneCivile-convivenze.xlsx</t>
+  </si>
+  <si>
+    <t>specifiche xlsx</t>
+  </si>
+  <si>
+    <t>matrimonio.xlsx</t>
+  </si>
+  <si>
+    <t>datiEvento.xlsx</t>
+  </si>
+  <si>
+    <t>Reso il luogo evento non obbligatorio</t>
+  </si>
+  <si>
+    <t>Guida operativa per il censimento degli utenti e delle postazioni e delle successive attività di consegna delle smart card - pdf.</t>
+  </si>
+  <si>
+    <t>Aggiornato censimento utenti area privata CNSD e numero smart card</t>
+  </si>
+  <si>
+    <t>errori_anpr_11_05_2017.xlsx</t>
+  </si>
+  <si>
+    <t>errori_ae_11_05_2017.xlsx</t>
+  </si>
+  <si>
+    <t>Aggiornamento codici di errore di ANPR</t>
+  </si>
+  <si>
+    <t>Aggiornamento codici di errore dei servizi di Agenzia Entrate</t>
+  </si>
+  <si>
+    <t>Resi obbligatori i dati matrimonio in quanto obbligatoria la data matrimonio (vedi eccezioni)</t>
+  </si>
+  <si>
+    <t>Modificate le codifiche per unioni civili (solo per ambiente test/presubentro)</t>
+  </si>
+  <si>
+    <t>Invio file di Subentro.pdf</t>
   </si>
 </sst>
 </file>
@@ -756,7 +816,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -776,6 +836,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1119,17 +1182,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76.42578125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1140,7 +1203,7 @@
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -1154,7 +1217,7 @@
       <c r="B2" s="1">
         <v>6001</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1168,7 +1231,7 @@
       <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1182,7 +1245,7 @@
       <c r="B4" s="1">
         <v>2003</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1196,7 +1259,7 @@
       <c r="B5" s="1">
         <v>3007</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1210,7 +1273,7 @@
       <c r="B6" s="1">
         <v>5008</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1224,7 +1287,7 @@
       <c r="B7" s="1">
         <v>5008</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1236,7 +1299,7 @@
         <v>42752</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1248,7 +1311,7 @@
         <v>42752</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1260,7 +1323,7 @@
         <v>42752</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1274,7 +1337,7 @@
       <c r="B11" s="1">
         <v>1002</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1288,7 +1351,7 @@
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1302,7 +1365,7 @@
       <c r="B13" s="1">
         <v>5008</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1316,7 +1379,7 @@
       <c r="B14" s="1">
         <v>3002</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1330,7 +1393,7 @@
       <c r="B15" s="1">
         <v>5008</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1344,7 +1407,7 @@
       <c r="B16" s="1">
         <v>1002</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -1358,7 +1421,7 @@
       <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1370,7 +1433,7 @@
         <v>42755</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -1382,7 +1445,7 @@
         <v>42755</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1394,7 +1457,7 @@
         <v>42755</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -1406,7 +1469,7 @@
         <v>42755</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -1418,7 +1481,7 @@
         <v>42755</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -1432,7 +1495,7 @@
       <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -1446,7 +1509,7 @@
       <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -1460,7 +1523,7 @@
       <c r="B25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -1474,7 +1537,7 @@
       <c r="B26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -1488,7 +1551,7 @@
       <c r="B27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -1502,7 +1565,7 @@
       <c r="B28" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -1516,7 +1579,7 @@
       <c r="B29" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -1530,7 +1593,7 @@
       <c r="B30" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -1544,7 +1607,7 @@
       <c r="B31" s="9">
         <v>1002</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -1558,7 +1621,7 @@
       <c r="B32" s="9">
         <v>1002</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -1572,7 +1635,7 @@
       <c r="B33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -1586,7 +1649,7 @@
       <c r="B34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -1600,7 +1663,7 @@
       <c r="B35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -1614,7 +1677,7 @@
       <c r="B36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -1628,7 +1691,7 @@
       <c r="B37" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -1642,7 +1705,7 @@
       <c r="B38" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -1656,7 +1719,7 @@
       <c r="B39" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -1670,7 +1733,7 @@
       <c r="B40" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D40" s="5" t="s">
@@ -1684,11 +1747,193 @@
       <c r="B41" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>42832</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>42832</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>42832</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>42832</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>42837</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>42866</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>42866</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>42866</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>42866</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>42866</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>42866</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>42866</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>42866</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1829,13 +2074,13 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{872D4FEA-0E1A-4A2F-890F-971ABD26DD30}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/src/_static/xlsx/tab_aggiornamenti_alla_documentazione_tecnica.xlsx
+++ b/src/_static/xlsx/tab_aggiornamenti_alla_documentazione_tecnica.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="102">
   <si>
     <t>documenti aggiornati</t>
   </si>
@@ -311,6 +311,15 @@
   </si>
   <si>
     <t>Invio file di Subentro.pdf</t>
+  </si>
+  <si>
+    <t>errori_anpr_16_05_2017.xlsx</t>
+  </si>
+  <si>
+    <t>tabella_1_stato_civile.xlsx</t>
+  </si>
+  <si>
+    <t>Modificate le codifiche 7 e 8 (sono state invertite)</t>
   </si>
 </sst>
 </file>
@@ -1182,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1934,6 +1943,48 @@
       </c>
       <c r="D54" s="4" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>42871</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>42871</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>42866</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2074,14 +2125,14 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{872D4FEA-0E1A-4A2F-890F-971ABD26DD30}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/src/_static/xlsx/tab_aggiornamenti_alla_documentazione_tecnica.xlsx
+++ b/src/_static/xlsx/tab_aggiornamenti_alla_documentazione_tecnica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20220" windowHeight="8040"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19440" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="aggiornamenti_20_01_2017" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="127">
   <si>
     <t>documenti aggiornati</t>
   </si>
@@ -316,10 +316,85 @@
     <t>errori_anpr_16_05_2017.xlsx</t>
   </si>
   <si>
-    <t>tabella_1_stato_civile.xlsx</t>
-  </si>
-  <si>
-    <t>Modificate le codifiche 7 e 8 (sono state invertite)</t>
+    <t>wsdlN000</t>
+  </si>
+  <si>
+    <t>wsdl6001</t>
+  </si>
+  <si>
+    <t>Certificazioni</t>
+  </si>
+  <si>
+    <t>wsdl1000</t>
+  </si>
+  <si>
+    <t>1002-IscrizioneAltriMotivi</t>
+  </si>
+  <si>
+    <t>A001-IscrizioneAIRENascita</t>
+  </si>
+  <si>
+    <t>wsdl5000</t>
+  </si>
+  <si>
+    <t>5001-MutazioneFamiglia-Convivenza</t>
+  </si>
+  <si>
+    <t>5012-AnnullamentoMutazione</t>
+  </si>
+  <si>
+    <t>Tracciati XSD e WSDL - rar</t>
+  </si>
+  <si>
+    <t>Specifiche di interfaccia dei servizi di ANPR per i comuni – documentazione tecnica - rar</t>
+  </si>
+  <si>
+    <t>Inserite le notifiche N014 ed N015</t>
+  </si>
+  <si>
+    <t>Aggiunti commenti per alcuni campi</t>
+  </si>
+  <si>
+    <t>Specificati i valori attualmente utilizzati della lista controlli</t>
+  </si>
+  <si>
+    <t>Eliminati CC071, CN303 e CN308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggiornamento tabelle decodifica </t>
+  </si>
+  <si>
+    <t>Aggiornamento tabelle 24 e 41 consolati e territori</t>
+  </si>
+  <si>
+    <t>Riapertura consolato Santo Domingo 2690100</t>
+  </si>
+  <si>
+    <t>5013-RevocaDato</t>
+  </si>
+  <si>
+    <t>Aggiornati i file vocabolario5000mutazione.xsd, 5000mutazione.xsd, tipoDato.xsd</t>
+  </si>
+  <si>
+    <t>Aggiounti i file 5013-RevocaDato.xlsx, revocaDato.xlsx, schedaSoggetto.xlsx</t>
+  </si>
+  <si>
+    <t>Risoluzione disallineamenti con l'Agenzia delle Entrate 12_07_2017.pdf</t>
+  </si>
+  <si>
+    <t>Appendice al documento di specifiche</t>
+  </si>
+  <si>
+    <t>errori_anpr_12_07_2017.xlsx</t>
+  </si>
+  <si>
+    <t>Residenza estera</t>
+  </si>
+  <si>
+    <t>alfanumerico120char</t>
+  </si>
+  <si>
+    <t>Non è più ammesso il carattere "/" per Località e Indirizzo estero</t>
   </si>
 </sst>
 </file>
@@ -825,7 +900,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -848,6 +923,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1191,16 +1269,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
     <col min="3" max="3" width="49.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76.42578125" style="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1875,7 +1953,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>42866</v>
       </c>
@@ -1975,16 +2053,282 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
-        <v>42866</v>
-      </c>
-      <c r="B57" s="8" t="s">
+        <v>42907</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>42907</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>42907</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>42907</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>42907</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>42907</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>42907</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
+        <v>42907</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <v>42907</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
+        <v>42907</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
+        <v>42907</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <v>42907</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>42907</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>42912</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>42928</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>42928</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>42928</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>42928</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>42928</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>42928</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>101</v>
+      <c r="C76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1994,21 +2338,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0EB43895666D743BBE5EE80DE8AFF2D" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3898ec998cc85d3bcc261598fbbf3dc9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -2122,17 +2451,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{872D4FEA-0E1A-4A2F-890F-971ABD26DD30}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30A4E566-AAC9-451E-AA26-97377196906E}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2146,17 +2491,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30A4E566-AAC9-451E-AA26-97377196906E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{872D4FEA-0E1A-4A2F-890F-971ABD26DD30}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/_static/xlsx/tab_aggiornamenti_alla_documentazione_tecnica.xlsx
+++ b/src/_static/xlsx/tab_aggiornamenti_alla_documentazione_tecnica.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="19440" windowHeight="8040"/>
   </bookViews>
   <sheets>
-    <sheet name="aggiornamenti_20_01_2017" sheetId="1" r:id="rId1"/>
+    <sheet name="aggiornamenti_29_08_2017" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="137">
   <si>
     <t>documenti aggiornati</t>
   </si>
@@ -376,9 +376,6 @@
     <t>Aggiornati i file vocabolario5000mutazione.xsd, 5000mutazione.xsd, tipoDato.xsd</t>
   </si>
   <si>
-    <t>Aggiounti i file 5013-RevocaDato.xlsx, revocaDato.xlsx, schedaSoggetto.xlsx</t>
-  </si>
-  <si>
     <t>Risoluzione disallineamenti con l'Agenzia delle Entrate 12_07_2017.pdf</t>
   </si>
   <si>
@@ -395,6 +392,43 @@
   </si>
   <si>
     <t>Non è più ammesso il carattere "/" per Località e Indirizzo estero</t>
+  </si>
+  <si>
+    <t>errori_anpr_31_08_2017.xlsx</t>
+  </si>
+  <si>
+    <t>Aggiunti i file 5013-RevocaDato.xlsx, revocaDato.xlsx, schedaSoggetto.xlsx</t>
+  </si>
+  <si>
+    <t>In 6001-RichiestaCertificati.xlsx  aggiunto forzaCertificazione già presente nell'XSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contratto Risoluzione.xlsx
+scioglimentoUnione.xlsx
+Specificato utilizzo del cod. motivo scioglimento 98 = Decesso del convivente/unito civilmente </t>
+  </si>
+  <si>
+    <t>In 5005-MutazioneResidenza.xlsx  aggiunto valore per forzare il cambio di residenza allo stesso indirizzo</t>
+  </si>
+  <si>
+    <t>errori_anpr_20170922.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserimento/Aggiornamento codici di errore di ANPR 
+</t>
+  </si>
+  <si>
+    <t>Oggetti</t>
+  </si>
+  <si>
+    <t>localitaEstera.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specificato che nel campo descrizioneConsolato deve essere riportata la città Sede del consolato come da tabella 24
+</t>
+  </si>
+  <si>
+    <t>errori_anpr_20170928.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1269,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2266,13 +2300,13 @@
         <v>42928</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="D72" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2286,7 +2320,7 @@
         <v>110</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2311,10 +2345,10 @@
         <v>68</v>
       </c>
       <c r="C75" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2325,10 +2359,122 @@
         <v>57</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>42978</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>42978</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <v>42978</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="7">
+        <v>42983</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
+        <v>42983</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
+        <v>43000</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
+        <v>43000</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
+        <v>43006</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2493,14 +2639,14 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{872D4FEA-0E1A-4A2F-890F-971ABD26DD30}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/_static/xlsx/tab_aggiornamenti_alla_documentazione_tecnica.xlsx
+++ b/src/_static/xlsx/tab_aggiornamenti_alla_documentazione_tecnica.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="161">
   <si>
     <t>documenti aggiornati</t>
   </si>
@@ -429,6 +429,87 @@
   </si>
   <si>
     <t>errori_anpr_20170928.xlsx</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20171005.xlsx</t>
+  </si>
+  <si>
+    <t>Tabella 3 comuni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La denominazione per MONTEBELLO IONICO diventa MONTEBELLO JONICO 
+Il codice catastale del comune CASALI DEL MANCO è impostato a M385 (prima era N.D, i.e. Non Disponibile)
+Il codice catastale per OLGIATE CALCO (due record) diventa G027 (prima era G026) in accordo a quanto presente nella banca dati di AE
+</t>
+  </si>
+  <si>
+    <t>errori_anpr_05102017.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserimento codice di errore EN407, EN427
+</t>
+  </si>
+  <si>
+    <t>errori_anpr_11102017.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminato codice di errore EN375 dal servizio 2003
+</t>
+  </si>
+  <si>
+    <t>tipoDatiControllo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggiornato il file vocabolario5000mutazione.xsd per documentare l'utilizzo dei dati di controllo </t>
+  </si>
+  <si>
+    <t>errori_anpr_16102017.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il codice di errore EC039 è attivo anche per il subentro
+</t>
+  </si>
+  <si>
+    <t>In Allegato XML S001- Subentro.xls specificate regole/condizioni per convivenza e responsabile convivenza</t>
+  </si>
+  <si>
+    <t>errori_anpr_18102017.xlsx</t>
+  </si>
+  <si>
+    <t>Inserimento codice di errore EN436</t>
+  </si>
+  <si>
+    <t>errori_anpr_19102017.xlsx</t>
+  </si>
+  <si>
+    <t>Inserimento codice di errore EN411</t>
+  </si>
+  <si>
+    <t>Invio file di Subentro</t>
+  </si>
+  <si>
+    <t>Aggiornate istruzioni per la predisposizione del file AIRE con AnagAire 6.0.3</t>
+  </si>
+  <si>
+    <t>Sito WEB di ANPR e specifiche di integrazione.pdf</t>
+  </si>
+  <si>
+    <t>Allegato 2 - Elenco funzioni WEB19102017.xlsx</t>
+  </si>
+  <si>
+    <t>Allegato 7 - Utilizzo WS ANPR totale 19102017.xlsx</t>
+  </si>
+  <si>
+    <t>Inserita la descrizione delle seguenti funzioni:
+Registrazione/Eliminazione dati
+Registrazione/Rettifiche
+Consultazione/Consultazione AE</t>
+  </si>
+  <si>
+    <t>Inserita operazione anagrafica 4002</t>
+  </si>
+  <si>
+    <t>Documentazione sito WEB</t>
   </si>
 </sst>
 </file>
@@ -1303,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95:B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,6 +2558,174 @@
         <v>132</v>
       </c>
     </row>
+    <row r="85" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
+        <v>42865</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="7">
+        <v>42865</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
+        <v>43019</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="7">
+        <v>43019</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="7">
+        <v>43024</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="7">
+        <v>43025</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="7">
+        <v>43026</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="7">
+        <v>43027</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="7">
+        <v>43027</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" s="7">
+        <v>43027</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A95" s="7">
+        <v>43027</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="7">
+        <v>43027</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2484,6 +2733,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0EB43895666D743BBE5EE80DE8AFF2D" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3898ec998cc85d3bcc261598fbbf3dc9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -2597,22 +2861,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{872D4FEA-0E1A-4A2F-890F-971ABD26DD30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{166CB6B4-1638-4D05-A349-B472930EF1EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30A4E566-AAC9-451E-AA26-97377196906E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2626,27 +2898,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{166CB6B4-1638-4D05-A349-B472930EF1EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{872D4FEA-0E1A-4A2F-890F-971ABD26DD30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/_static/xlsx/tab_aggiornamenti_alla_documentazione_tecnica.xlsx
+++ b/src/_static/xlsx/tab_aggiornamenti_alla_documentazione_tecnica.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="19440" windowHeight="8040"/>
   </bookViews>
   <sheets>
-    <sheet name="aggiornamenti_29_08_2017" sheetId="1" r:id="rId1"/>
+    <sheet name="aggiornamenti_14_11_2017" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="171">
   <si>
     <t>documenti aggiornati</t>
   </si>
@@ -510,6 +510,36 @@
   </si>
   <si>
     <t>Documentazione sito WEB</t>
+  </si>
+  <si>
+    <t>errori_anpr_20171024.xlsx</t>
+  </si>
+  <si>
+    <t>tabella_46_tipo_mutazione_famiglia_convivenza.xlsx</t>
+  </si>
+  <si>
+    <t>tabella_47_tipo_mutazione_residenza.xlsx</t>
+  </si>
+  <si>
+    <t>Inserimento codici di errore EN416, EN426</t>
+  </si>
+  <si>
+    <t>errori_anpr_20171026.xlsx</t>
+  </si>
+  <si>
+    <t>Inserimento codice di errore EN447</t>
+  </si>
+  <si>
+    <t>errori_anpr_20171103.xlsx</t>
+  </si>
+  <si>
+    <t>errori_anpr_20171109.xlsx</t>
+  </si>
+  <si>
+    <t>Inserimento/Aggiornamento codici di errore di ANPR</t>
+  </si>
+  <si>
+    <t>errori_anpr_20171116.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1384,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95:B96"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2726,6 +2756,128 @@
         <v>159</v>
       </c>
     </row>
+    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
+        <v>43032</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="7">
+        <v>43032</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
+        <v>43032</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
+        <v>43032</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="7">
+        <v>43034</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="7">
+        <v>43042</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="7">
+        <v>43042</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="7">
+        <v>43048</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="7">
+        <v>43055</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2733,21 +2885,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0EB43895666D743BBE5EE80DE8AFF2D" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3898ec998cc85d3bcc261598fbbf3dc9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -2861,17 +2998,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{872D4FEA-0E1A-4A2F-890F-971ABD26DD30}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30A4E566-AAC9-451E-AA26-97377196906E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2885,17 +3038,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30A4E566-AAC9-451E-AA26-97377196906E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{872D4FEA-0E1A-4A2F-890F-971ABD26DD30}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/_static/xlsx/tab_aggiornamenti_alla_documentazione_tecnica.xlsx
+++ b/src/_static/xlsx/tab_aggiornamenti_alla_documentazione_tecnica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19440" windowHeight="8040"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="19440" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="aggiornamenti_14_11_2017" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="268">
   <si>
     <t>documenti aggiornati</t>
   </si>
@@ -536,17 +536,341 @@
     <t>errori_anpr_20171109.xlsx</t>
   </si>
   <si>
+    <t>Aggiunte specifiche per nuovo servizio 5014 e aggiornamento servizio 1014</t>
+  </si>
+  <si>
+    <t>Tracciati XSD e WSDL - rar,</t>
+  </si>
+  <si>
+    <t>servizi 5014 e 1014</t>
+  </si>
+  <si>
+    <t>elenco servizi</t>
+  </si>
+  <si>
+    <t>Aggiunto nuovo servizio 5014</t>
+  </si>
+  <si>
     <t>Inserimento/Aggiornamento codici di errore di ANPR</t>
   </si>
   <si>
+    <t>elenco funzioni web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggiunte specifiche per nuovo servizio 5014 e aggiornamento servizio 1014. Sull'oggetto atto portato il campo UfficioMunicipio a 80 caratteri </t>
+  </si>
+  <si>
     <t>errori_anpr_20171116.xlsx</t>
+  </si>
+  <si>
+    <t>Allegato_5_Elenco_WS_di_ANPR_17112017.xlsx</t>
+  </si>
+  <si>
+    <t>Allegato 2 - Elenco funzioni WEB17112017.xlsx</t>
+  </si>
+  <si>
+    <t>Tabella 24 T_Elenco-Consolati_20171129.xls</t>
+  </si>
+  <si>
+    <t>Tabella 41 T_Assoc-StatoTerritConsolato_20171129.xls</t>
+  </si>
+  <si>
+    <t>Eliminate parentesi dalla denominazione del consolato 3330304  IZMIR - SMIRNE</t>
+  </si>
+  <si>
+    <t>tabella_48_tipi_revoca.xlsx</t>
+  </si>
+  <si>
+    <t>Da utilizzare per il servizio 5013</t>
+  </si>
+  <si>
+    <t>tabella_49_motivi_revoca.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adeguamento del Codice catastale di ANPR a quello presenti in AE
+13968 CAPRIANO AZZANO B698 B700
+13970 CASTELLI CUSIANI I025 C171
+17980 CASTELLI CUSIANI I025 C171
+11578 FRASSINELLO-OLIVOLA D777 D778
+12146 LONATO  M312 E667
+13985 PIAN D'ARTOGNE G546 G550
+11952 RENATE VEDUGGIO H233 H234
+</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20171201.xlsx</t>
+  </si>
+  <si>
+    <t>tabella_32_motivi_revoca.xlsx</t>
+  </si>
+  <si>
+    <t>Aggiornata la descrizione del codice 4 in Avvocato/Notaio/Uff.St.Civile</t>
+  </si>
+  <si>
+    <t>Aggiornamento file rettifica102.xlsx richiamato dal servizio 5014 per adeguamento al XSD</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20171219.xlsx</t>
+  </si>
+  <si>
+    <t>Aggiornamenti della data di istituzione/cessazione dei comuni:
+Ortonovo,
+Luni
+Soraga
+Soraga Di Fassa
+Trentola Ducenta</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20180105.xlsx</t>
+  </si>
+  <si>
+    <t>Istituzione nuovi comuni di LATERINA PERGINE VALDARNO e RIO</t>
+  </si>
+  <si>
+    <t>Tabella 24 Elenco consolati</t>
+  </si>
+  <si>
+    <t>tabella 24 Elenco consolati 20180115.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sostituiti doppi apici con apice singolo nella Denominazione stato di appartenenza, Sede e Rango </t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20180116.xlsx</t>
+  </si>
+  <si>
+    <t>Istituzione 13 nuovi comuni al 01/01/2018.
+Soppressione comune di SABBIA per accorpamento con VARALLO
+Spostamento comune di SAPPADA da Veneto a Friuli Venezia Giulia</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20180118.xlsx</t>
+  </si>
+  <si>
+    <t>La sigla provinciadi ZARA è cambiata da ‘ZR’ a ‘ZA’</t>
+  </si>
+  <si>
+    <t>Aggiunto nel file TipoDato.xsd il commento relativo al richiedente certificato aggiungendo Tipo 3 = Ente</t>
+  </si>
+  <si>
+    <t>specifiche xsd</t>
+  </si>
+  <si>
+    <t>Aggiunto nel file 6001-RichiestaCertificati il commento relativo al richiedente certificato aggiungendo Tipo 3 = Ente</t>
+  </si>
+  <si>
+    <t>1014-Procedimenti.xlsx</t>
+  </si>
+  <si>
+    <t>Modificata la molteplicità dell'oggetto generalità</t>
+  </si>
+  <si>
+    <t>Modificata la molteplicità dell'oggetto generalitàPerRicerca</t>
+  </si>
+  <si>
+    <t>errori_anpr_20180205.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserimento EN434, EN435
+</t>
+  </si>
+  <si>
+    <t>Aggiornato paragrafo  11.3</t>
+  </si>
+  <si>
+    <t>errori_anpr_20180207.xlsx</t>
+  </si>
+  <si>
+    <t>Inserimento/Aggiornamento codici di errore di ANPR vers. 3.5</t>
+  </si>
+  <si>
+    <t>tabella_13_tipo_certificato_09022018.xlsx</t>
+  </si>
+  <si>
+    <t>Modificata descrizione tipo 14 = di Residenza in convivenza</t>
+  </si>
+  <si>
+    <t>Nuova lista errori</t>
+  </si>
+  <si>
+    <t>Anomalie al subentro e operazioni di registrazione.xlsx</t>
+  </si>
+  <si>
+    <r>
+      <t>Elenco segnalazioni ANPR subentro.xlsx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Elenco segnalazioni ANPR operazioni anagrafiche.xlsx </t>
+  </si>
+  <si>
+    <t>Sostituiscono errori_anpr_20180207</t>
+  </si>
+  <si>
+    <t>tabella_25_tipo_indirizzo_15022018.xlsx</t>
+  </si>
+  <si>
+    <t>Aggiunti tipo indirizzo 8 "Residenza temporanea" e 10 " Revisione onomastica stradale"</t>
+  </si>
+  <si>
+    <t>Aggiunta il tipo mutazione 7 per mutazione Toponomastica</t>
+  </si>
+  <si>
+    <t>Aggiornamento §17 certificati AIRE e stato libero</t>
+  </si>
+  <si>
+    <t>Mappatura_controlli_servizio_certificazione.xlsx</t>
+  </si>
+  <si>
+    <t>Nuovo documento per i controlli effettuati del servizio di certificazione</t>
+  </si>
+  <si>
+    <t>Elenco segnalazioni ANPR subentro</t>
+  </si>
+  <si>
+    <t>Aggiornate note</t>
+  </si>
+  <si>
+    <t>elenco segnalazioni ANPR subentro_19_02_2018.xlsx</t>
+  </si>
+  <si>
+    <t>elenco segnalazioni ANPR operazioni anagrafiche_21_02_2018</t>
+  </si>
+  <si>
+    <t>Eliminato CN236</t>
+  </si>
+  <si>
+    <t>Elenco segnalazioni ANPR operazioni anagrafiche</t>
+  </si>
+  <si>
+    <t>Tabella 41 Stati, Territori, Consolati</t>
+  </si>
+  <si>
+    <t>T_Assoc-StatoTerritConsolato_20180221.xls</t>
+  </si>
+  <si>
+    <t>L’ambasciata di competenza del SURINAME è BRASILIA
+ Le ISOLE COOK appartengono alla NUOVA ZELANDA</t>
+  </si>
+  <si>
+    <t>tabella_2_statiesteri_22022018.xlsx</t>
+  </si>
+  <si>
+    <t>Tabella 2 Stati esteri</t>
+  </si>
+  <si>
+    <t>Per i territori è stato valorizzato CODMIN</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20180223.xlsx</t>
+  </si>
+  <si>
+    <t>Istituzione nuovi comuni di BARBARANO MOSSANO, BORGO VENETO, FIUMICELLO VILLA VICENTINA, TREPPO LIGOSULLO</t>
+  </si>
+  <si>
+    <t>elenco segnalazioni ANPR operazioni anagrafiche_06_03_2018</t>
+  </si>
+  <si>
+    <t>Aggiornati ES013, ES278
+Inseriti EN483, EN484, EN485</t>
+  </si>
+  <si>
+    <t>elenco segnalazioni ANPR operazioni anagrafiche_13_03_2018</t>
+  </si>
+  <si>
+    <t>Aggiornato EC184</t>
+  </si>
+  <si>
+    <t>elenco segnalazioni ANPR operazioni anagrafiche_20_03_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggiornati EHR81,EHR82,EHR83,EHR35,EHR36,EHR37
+Inserito EN490
+</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20180326.xlsx</t>
+  </si>
+  <si>
+    <t>Modificata per le denominazioni non italiane  di alcuni comuni e per la rimozione di uno spazio di troppo dal nome di PALAZZUOLO DI ROMAGNA</t>
+  </si>
+  <si>
+    <t>Risoluzione disallineamenti con l'Agenzia delle Entrate 28_03_2018.pdf</t>
+  </si>
+  <si>
+    <t>Aggiunto il capitolo 4.1 per il collegamento dei codici fiscali</t>
+  </si>
+  <si>
+    <t>Aggiornate le date di inizio e fine validità del comune di Pauli</t>
+  </si>
+  <si>
+    <t>elenco segnalazioni ANPR operazioni anagrafiche_12_04_2018_.xlsx</t>
+  </si>
+  <si>
+    <t>Corretta descrizione messaggio EC172</t>
+  </si>
+  <si>
+    <t>Nel file scioglimentoUnione.xlsx specificata la regola "E' obbligatorio inserire in alternativa esclusiva i dati della sentenza o i dati Evento"</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20180413.xlsx</t>
+  </si>
+  <si>
+    <t>Aggiornato formato date</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20180418.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificati i codici catastali di alcuni record storici </t>
+  </si>
+  <si>
+    <t>elenco segnalazioni ANPR operazioni anagrafiche_23_04_2018_.xlsx</t>
+  </si>
+  <si>
+    <t>Corretta descrizione messaggio EN314</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20180423.xlsx</t>
+  </si>
+  <si>
+    <t>Per i comuni con DATAULTIMOAGG = 23/04/2018 è stata eliminata la colonna ALTRADENOMINAZIONE</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20180424.xlsx</t>
+  </si>
+  <si>
+    <t>Modificata la denominazione di CROCETTA TREVIGIANA (026025)</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20180205.xlsx</t>
+  </si>
+  <si>
+    <t>Cambio di provincia di un comune attivo, TORRE DE’ BUSI, e dell’introduzione di un record storico di un altro comune attivo, VICCHIO</t>
+  </si>
+  <si>
+    <t>elenco segnalazioni ANPR operazioni anagrafiche_07_05_2018_.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificata descrizione EHR93,EN428,EN429
+Inseriti nuovi controlli EHR98,EN469,EN470,EN471,EN472,EN486,EN487,EN488,EN492
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -681,6 +1005,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -870,7 +1200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1000,6 +1330,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1045,7 +1412,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1071,6 +1438,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1414,10 +1809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="F158" sqref="F158:F161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,7 +1820,8 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
     <col min="3" max="3" width="49.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="105.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1470,7 +1866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>42752</v>
       </c>
@@ -1590,7 +1986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>42755</v>
       </c>
@@ -1618,7 +2014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>42755</v>
       </c>
@@ -1632,7 +2028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>42755</v>
       </c>
@@ -1646,7 +2042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>42755</v>
       </c>
@@ -1734,7 +2130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>42761</v>
       </c>
@@ -1748,7 +2144,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>42761</v>
       </c>
@@ -1762,7 +2158,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>42783</v>
       </c>
@@ -1776,7 +2172,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>42783</v>
       </c>
@@ -1930,7 +2326,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>42458</v>
       </c>
@@ -2070,7 +2466,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>42866</v>
       </c>
@@ -2476,7 +2872,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>42978</v>
       </c>
@@ -2630,7 +3026,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>43019</v>
       </c>
@@ -2850,7 +3246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>43048</v>
       </c>
@@ -2872,19 +3268,771 @@
         <v>59</v>
       </c>
       <c r="C105" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="7">
+        <v>43056</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="7">
+        <v>43056</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="7">
+        <v>43056</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C108" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D108" s="4" t="s">
         <v>169</v>
       </c>
     </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="7">
+        <v>43056</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="7">
+        <v>43056</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D110" s="14"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="7">
+        <v>43068</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="7">
+        <v>43068</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="7">
+        <v>43068</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="7">
+        <v>43068</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A115" s="7">
+        <v>43070</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="7">
+        <v>43074</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="7">
+        <v>43074</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="7">
+        <v>43082</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A119" s="7">
+        <v>43098</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="7">
+        <v>43105</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="7">
+        <v>43115</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="7">
+        <v>43116</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="7">
+        <v>43118</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="7">
+        <v>43121</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="7">
+        <v>43121</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="7">
+        <v>43136</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="7">
+        <v>43136</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="7">
+        <v>43136</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="7">
+        <v>43136</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="7">
+        <v>43136</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="7">
+        <v>43138</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="7">
+        <v>43139</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D132" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="7">
+        <v>43139</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D133" s="20"/>
+    </row>
+    <row r="134" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="7">
+        <v>43139</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D134" s="21"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="7">
+        <v>43140</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="7">
+        <v>43146</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="7">
+        <v>43146</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="7">
+        <v>43146</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="7">
+        <v>43150</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="7">
+        <v>43152</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D140" s="16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="7">
+        <v>43152</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="7">
+        <v>43153</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D142" s="16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="7">
+        <v>43154</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="7">
+        <v>43165</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="7">
+        <v>43172</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="17">
+        <v>43179</v>
+      </c>
+      <c r="B146" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C146" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="D146" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="7">
+        <v>43185</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="7">
+        <v>43187</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="7">
+        <v>43194</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="18">
+        <v>43202</v>
+      </c>
+      <c r="B150" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C150" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D150" s="15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="18">
+        <v>43202</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="7">
+        <v>43203</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="7">
+        <v>43208</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="18">
+        <v>43213</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C154" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="D154" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="7">
+        <v>43213</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="7">
+        <v>43214</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="7">
+        <v>43222</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="18">
+        <v>43227</v>
+      </c>
+      <c r="B158" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C158" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D158" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D132:D134"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0EB43895666D743BBE5EE80DE8AFF2D" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3898ec998cc85d3bcc261598fbbf3dc9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -2998,22 +4146,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{872D4FEA-0E1A-4A2F-890F-971ABD26DD30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{166CB6B4-1638-4D05-A349-B472930EF1EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30A4E566-AAC9-451E-AA26-97377196906E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3027,27 +4183,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{166CB6B4-1638-4D05-A349-B472930EF1EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{872D4FEA-0E1A-4A2F-890F-971ABD26DD30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/_static/xlsx/tab_aggiornamenti_alla_documentazione_tecnica.xlsx
+++ b/src/_static/xlsx/tab_aggiornamenti_alla_documentazione_tecnica.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="19440" windowHeight="8100"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="19440" windowHeight="7860"/>
   </bookViews>
   <sheets>
-    <sheet name="aggiornamenti_14_11_2017" sheetId="1" r:id="rId1"/>
+    <sheet name="aggiornamenti_06_03_2019" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="416">
   <si>
     <t>documenti aggiornati</t>
   </si>
@@ -865,12 +865,462 @@
 Inseriti nuovi controlli EHR98,EN469,EN470,EN471,EN472,EN486,EN487,EN488,EN492
 </t>
   </si>
+  <si>
+    <t>Aggiunto il nuovo tipo rettifica103 al WS 5014
+Aggiunto oggetto provenienza al WS A002</t>
+  </si>
+  <si>
+    <t>Tracciati XSD e WSDL.rar</t>
+  </si>
+  <si>
+    <t>Tabella 36 Tipi di mutazione</t>
+  </si>
+  <si>
+    <t>tabella_36_tipo_mutazione_15052018.xlsx</t>
+  </si>
+  <si>
+    <t>Aggiunto nuovo tipo mutazione = 21 Dati integrativi AIRE</t>
+  </si>
+  <si>
+    <t>MI-14-AN-01 SPECIFICHE DI INTERFACCIA WS_15_05_2018.pdf</t>
+  </si>
+  <si>
+    <t>elenco segnalazioni ANPR operazioni anagrafiche_15_05_2018_.xlsx</t>
+  </si>
+  <si>
+    <t>EN141 - la severità è W</t>
+  </si>
+  <si>
+    <t>Aggiunto il nuovo tipo rettifica103 al WS 5014
+Aggiunto oggetto provenienza al WS A002
+Aggiunto nuovo tipo mutazione = 21 Dati integrativi AIRE</t>
+  </si>
+  <si>
+    <t>Aggiunti nel file 6001-RichiestaCertificati la  decodifica dei valori:  2,3 per il campo Paestera -  3 per per il campo emissione</t>
+  </si>
+  <si>
+    <t>MI-14-AN-01 SPECIFICHE DI INTERFACCIA WS_22_05_2018.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggiornato paragrafo  17.1.5.1 </t>
+  </si>
+  <si>
+    <t>MI-14-AN-01 SPECIFICHE DI INTERFACCIA WS_23_05_2018.pdf</t>
+  </si>
+  <si>
+    <t>Aggiornato paragrafo  11.3.4</t>
+  </si>
+  <si>
+    <t>Corretto cartaIdentità.xls per allinearlo a tipoDato.xsd: la data scadenza è posizionata dopo il consolato rilascio. 
+Inoltre nelle regole/condizioni è stato indicato che data scadenza non puo' essere precedente alla data di rilascio</t>
+  </si>
+  <si>
+    <t>MI-14-AN-01 SPECIFICHE DI INTERFACCIA WS_24_05_2018.pdf</t>
+  </si>
+  <si>
+    <t>Aggiornato paragrafi  6.2 e 23</t>
+  </si>
+  <si>
+    <t>elenco segnalazioni ANPR operazioni anagrafiche_25_05_2018_.xlsx</t>
+  </si>
+  <si>
+    <t>Aggiunto ES127 che era riportato solo nell'elenco delle segnalazioni da subentro</t>
+  </si>
+  <si>
+    <t>Riportati i valori ammessi nella listaControlli per i WS 1002, A001, A002, A006, 5012</t>
+  </si>
+  <si>
+    <t>MI-14-AN-01 SPECIFICHE DI INTERFACCIA WS_30_05_2018.pdf</t>
+  </si>
+  <si>
+    <t>Aggiornati paragrafi 8.3.1.1,   9.1.1,    11.3.1,   11.3.4</t>
+  </si>
+  <si>
+    <t>Modificato il file 5008-MutazioneDatiGeneraliStatoCivile.xlsx</t>
+  </si>
+  <si>
+    <t>Modificato il tracciato per il servizio 5008 con l'aggiunta dei dati di decesso</t>
+  </si>
+  <si>
+    <t>tabella_25_tipo_indirizzo</t>
+  </si>
+  <si>
+    <t>Aggiunto nuovo tipo indirizzo 11 - Rettifica post accertamenti</t>
+  </si>
+  <si>
+    <t>Tabella 25 tipo indirizzo</t>
+  </si>
+  <si>
+    <t>tabella_46_tipo_mutazione_famiglia_convivenza_30052018</t>
+  </si>
+  <si>
+    <t>Tabella 30 tipo mutazione famiglia</t>
+  </si>
+  <si>
+    <t>Aggiunto nuovo tipo mutazione 8 - Rettifica indirizzo post accertamento</t>
+  </si>
+  <si>
+    <t>Tabella 36 tipo mutazione</t>
+  </si>
+  <si>
+    <t>Aggiunto nuovo tipo mutazione 22 - Dati decesso</t>
+  </si>
+  <si>
+    <t>tabella_36_tipo_mutazione_30052018.xlsx</t>
+  </si>
+  <si>
+    <t>Aggiunto AEE95 - Operazione non effettuabile</t>
+  </si>
+  <si>
+    <t>Errori segnalati dall'Agenzia delle entrate</t>
+  </si>
+  <si>
+    <t>errori_ae_01_06_2017.xlsx</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20180601.xlsx</t>
+  </si>
+  <si>
+    <t>Aggiornamento della denominazione e della denominazione in altra lingua dei comuni di SAN DORLIGO DELLA VALLE-DOLINA e SGONICO-ZGONIK</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20180607.xlsx</t>
+  </si>
+  <si>
+    <t>Aggiornamento della data di istituzione del comune di CAVALLINO-TREPORTI</t>
+  </si>
+  <si>
+    <t>Certificato CA produzione</t>
+  </si>
+  <si>
+    <t>Certificati</t>
+  </si>
+  <si>
+    <t>Dodumentazione</t>
+  </si>
+  <si>
+    <t>Lista indirizzi Web services in produzione</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20180612.xlsx</t>
+  </si>
+  <si>
+    <t>Aggiornamento dati del comune di FRONTONE-SERRA</t>
+  </si>
+  <si>
+    <t>elenco segnalazioni ANPR operazioni anagrafiche_15_06_2018_.xlsx</t>
+  </si>
+  <si>
+    <t>Il controllo EN230 è stato reso bloccante (E) in tutti gli ambienti</t>
+  </si>
+  <si>
+    <t>Aggiornato paragrafo  12.1.2</t>
+  </si>
+  <si>
+    <t>Modificati alcuni commenti sui file:  3003-GestioneOperazioni.xlsx, 3007-GestioneIdentificativiOperazioni.xlsx, 3003Response.xlsx, 3007response.xlsx; aggiunto  il file legameSoggettoCompleto.xlsx</t>
+  </si>
+  <si>
+    <t>MI-14-AN-01 SPECIFICHE DI INTERFACCIA WS_09_07_2018.pdf</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20180718.xlsx</t>
+  </si>
+  <si>
+    <t>Aggiornamento comune di VERRÈS</t>
+  </si>
+  <si>
+    <t>MI-14-AN-01 SPECIFICHE DI INTERFACCIA WS_18_07_2018.pdf</t>
+  </si>
+  <si>
+    <t>Aggiornato paragrafo  11.3.1 (refuso: 12 - matrimonio anziché 12 - vedovanza)</t>
+  </si>
+  <si>
+    <t>Tabella 41 Stati territori consolati</t>
+  </si>
+  <si>
+    <t>T_Assoc-StatoTerritConsolato_20180724.xls</t>
+  </si>
+  <si>
+    <t>Dal 15/07/2018  la nazione “Stati Federati di Micronesia” (cod. ISTAT 713) cessa di essere competenza dell’Ambasciata di Canberra (3020100) ed entra a far parte della circoscrizione consolare dell’Ambasciata di Manila (3100100).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introdotte limitazione caratteri speciali nei campi note </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documento specifiche </t>
+  </si>
+  <si>
+    <t>Appendice Modifiche Tipi Dati Servizi.xlsx</t>
+  </si>
+  <si>
+    <t>Mappatura campi/caratteri accettati</t>
+  </si>
+  <si>
+    <t>Appendice Tracciato Aire.xlsx</t>
+  </si>
+  <si>
+    <t>Inserito controllo ES130</t>
+  </si>
+  <si>
+    <t>elenco segnalazioni ANPR operazioni anagrafiche_03_08_2018_.xlsx</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20180810.xlsx</t>
+  </si>
+  <si>
+    <t>Introdotto il trattino anche nell’ALTRADENOMINAZIONE per il comune di SAINT-NICOLAS</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20180827.xlsx</t>
+  </si>
+  <si>
+    <t>Variata la data istituzione del comune di Baricella (17/03/1861)</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20180906.xlsx</t>
+  </si>
+  <si>
+    <t>Aggiornati comuni di CASTELLO - C182 e MOERNA - F264</t>
+  </si>
+  <si>
+    <t>Anomalie al subentro e operazioni di registrazione (12-09-2018).xlsx</t>
+  </si>
+  <si>
+    <t>Anomalie al subentro e operazioni di registrazione</t>
+  </si>
+  <si>
+    <t>Per le anomalie EHR69, EHR71, EHR73,EN242,ES009 è stata eliminata la nota " Non consentito il certificato di ………."</t>
+  </si>
+  <si>
+    <t>elenco segnalazioni ANPR operazioni anagrafiche_14_09_2018_.xlsx</t>
+  </si>
+  <si>
+    <t>Corretti messaggi di errore dei controlli EN221 e EN222</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20180920.xlsx</t>
+  </si>
+  <si>
+    <t>Aggiornato cod. catastale I719 del Comune di SIAMANNA-SIAPICCIA</t>
+  </si>
+  <si>
+    <t>Aggiornate province di ARMO,BOLLONE,CASOTTO,CEGLIE MESSAPICO,MAGASA,PEDEMONTE,PERSONE,TURANO. Modificata la denominazione di COSTA DI MONTICELLI</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20180921.xlsx</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20180926.xlsx</t>
+  </si>
+  <si>
+    <t>Aggiornata denominazione per MONFESTINO IN SERRAMAZZONI e le province per tutti i comuni con data ultimo aggiornamento 24 e 25/09/2018</t>
+  </si>
+  <si>
+    <t>Allegato_5_Elenco_WS_di_ANPR_26092018.xlsx</t>
+  </si>
+  <si>
+    <t>Aggiunti WS 7002 e 7003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elenco dei web services disponibili </t>
+  </si>
+  <si>
+    <t>elenco segnalazioni ANPR operazioni anagrafiche_26_09_2018_.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserimento codici di errore di ANPR in data odierna
+</t>
+  </si>
+  <si>
+    <t>Allegato_5_Elenco_WS_di_ANPR_27092018.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggiunti WS 3004 e 4004 </t>
+  </si>
+  <si>
+    <t>Modificato 6001-RichiestaCertificati.xlsx, nel campo Paestera è ammesso anche il valore 4</t>
+  </si>
+  <si>
+    <t>elenco segnalazioni ANPR operazioni anagrafiche_04_10_2018_.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggiornamento codici di errore di ANPR in data odierna
+</t>
+  </si>
+  <si>
+    <t>Inserito EN507</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aggiornata "testataRichiesta" in "oggetti": aggiunta dataDefinzione; inseriti ws 3004, 4004, 7002; inserita notifica  N032</t>
+  </si>
+  <si>
+    <t>elenco segnalazioni ANPR operazioni anagrafiche_16_10_2018_.xlsx</t>
+  </si>
+  <si>
+    <t>Tabella 28 Motivi cancellazione AIRE</t>
+  </si>
+  <si>
+    <t>tabella_28_motivi_cancellazione_AIRE.xlsx</t>
+  </si>
+  <si>
+    <t>Inserito motivo 10 - Doppia iscrizione</t>
+  </si>
+  <si>
+    <t>elenco segnalazioni ANPR operazioni anagrafiche_18_10_2018_.xlsx</t>
+  </si>
+  <si>
+    <t>Risoluzione disallineamenti con l'Agenzia delle Entrate 18_10_2018.pdf</t>
+  </si>
+  <si>
+    <t>tabella_2_statiesteri_09112018.xlsx</t>
+  </si>
+  <si>
+    <t>Valorizzato il CODAT per ISOLA DELLA MARTINICA Z513, ISOLA DI ARUBA Z501</t>
+  </si>
+  <si>
+    <t>aggiornato oggetto cartaIdentità: aggiunto campo data annullamento</t>
+  </si>
+  <si>
+    <t>elenco segnalazioni ANPR operazioni anagrafiche_15_11_2018_.xlsx</t>
+  </si>
+  <si>
+    <t>Impostato a W il controllo CN483</t>
+  </si>
+  <si>
+    <t>aggiornato oggetto tipoDatiRichiesta 3002 per effettuare una ricerca nazionale o sul solo comune di competenza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggiornato paragrafo  18.1.2 Introdotto il parametro ricercaNazionale </t>
+  </si>
+  <si>
+    <t>MI-14-AN-01 SPECIFICHE DI INTERFACCIA WS_15_11_2018.pdf</t>
+  </si>
+  <si>
+    <t>elenco segnalazioni ANPR operazioni anagrafiche_22_11_2018_.xlsx</t>
+  </si>
+  <si>
+    <t>Modificata descrizione messaggio di errore per EN470 e EN472</t>
+  </si>
+  <si>
+    <t>Elenco segnalazioni ANPR al subentro</t>
+  </si>
+  <si>
+    <t>elenco segnalazioni ANPR subentro_22_11_2018.xlsx</t>
+  </si>
+  <si>
+    <t>Inserito nuovo controllo EN524 non bloccante</t>
+  </si>
+  <si>
+    <t>aggiornato oggetto isolato (portato a 20 caratteri) nell'oggetto numeroCivico</t>
+  </si>
+  <si>
+    <t>Allineato TipoDato.xsd su tutti i servizi</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20181212.xlsx</t>
+  </si>
+  <si>
+    <t>Eliminata la denominazione Venaria, resta Venaria Reale</t>
+  </si>
+  <si>
+    <t>Risoluzione disallineamenti con l'Agenzia delle Entrate 14_12_2018.pdf</t>
+  </si>
+  <si>
+    <t>Specificata a pag. 16 la gestione dell'indirizzo</t>
+  </si>
+  <si>
+    <t>Istituzione nuovi comuni 2019</t>
+  </si>
+  <si>
+    <t>Tabella 43 cessazione unioni civili, convivenze</t>
+  </si>
+  <si>
+    <t>Inserite note per l'utilizzo delle codifiche</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20190108.xlsx</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20190114.xlsx</t>
+  </si>
+  <si>
+    <t>Modificata data istituzione del comune di LAJATICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aggiornato il file  3002-InterrogazioneCittadinoFamigliaConvivenza.xlsx: aggiunti i parametri" ricercaNazionale" e  "comuneResidenza" </t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20190116.xlsx</t>
+  </si>
+  <si>
+    <t>Modificate data istituzione del comune di BOVISIO-MASCIAGO e data cessazione del comune di BOVISIO</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20190117.xlsx</t>
+  </si>
+  <si>
+    <t>Aggiornamenti dei comuni di COLLI VERDI e PIADENA DRIZZONA</t>
+  </si>
+  <si>
+    <t>elenco segnalazioni ANPR operazioni anagrafiche_21_01_2019.xlsx</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20190131.xlsx</t>
+  </si>
+  <si>
+    <t>Aggiornato cod. catastale E556 del Comune di LETOJANNI GALLODORO</t>
+  </si>
+  <si>
+    <t>Inserita la gestione dell’indirizzo/i IP e/o NET di provenienza per le successive fasi autorizzative di accesso ai servizi</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20190201.xlsx</t>
+  </si>
+  <si>
+    <t>Istituzione nuovo comune LU E CUCCARO MONFERRATO</t>
+  </si>
+  <si>
+    <t>elenco segnalazioni ANPR operazioni anagrafiche_05_02_2019.xlsx</t>
+  </si>
+  <si>
+    <t>Inserito paragrafo 4.2</t>
+  </si>
+  <si>
+    <t>Risoluzione disallineamenti con l'Agenzia delle Entrate 11_02_2019.pdf</t>
+  </si>
+  <si>
+    <t>Inseriti EN527 e EN528</t>
+  </si>
+  <si>
+    <t>elenco segnalazioni ANPR operazioni anagrafiche_13_02_2019.xlsx</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20190218.xlsx</t>
+  </si>
+  <si>
+    <t>Istituzione nuovi comuni al 30/01/2019</t>
+  </si>
+  <si>
+    <t>Aggiornato pattern nomi cognomi</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20190225.xlsx</t>
+  </si>
+  <si>
+    <t>Istituzione nuovi comuni COLCERESA, LUSIANA CONCO, VALBRENTA, VERMEZZO CON ZELO</t>
+  </si>
+  <si>
+    <t>tabella 3 archivio comuni 20190306.xlsx</t>
+  </si>
+  <si>
+    <t>Aggiornato codice catastale del comune di CADREZZATE CON OSMATE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1011,6 +1461,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1412,7 +1868,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1457,6 +1913,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1809,17 +2268,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D158"/>
+  <dimension ref="A1:D240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="F158" sqref="F158:F161"/>
+    <sheetView tabSelected="1" topLeftCell="D232" workbookViewId="0">
+      <selection activeCell="H234" sqref="H234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.5703125" style="5" customWidth="1"/>
     <col min="4" max="4" width="105.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" customWidth="1"/>
   </cols>
@@ -3644,7 +4103,7 @@
       <c r="C132" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D132" s="19" t="s">
+      <c r="D132" s="20" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3658,7 +4117,7 @@
       <c r="C133" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D133" s="20"/>
+      <c r="D133" s="21"/>
     </row>
     <row r="134" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
@@ -3670,7 +4129,7 @@
       <c r="C134" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D134" s="21"/>
+      <c r="D134" s="22"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
@@ -3854,7 +4313,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
         <v>43187</v>
       </c>
@@ -4006,6 +4465,1150 @@
       </c>
       <c r="D158" s="15" t="s">
         <v>267</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A159" s="7">
+        <v>43235</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" s="7">
+        <v>43235</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="7">
+        <v>43235</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="7">
+        <v>43235</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="7">
+        <v>43235</v>
+      </c>
+      <c r="B163" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C163" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D163" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="7">
+        <v>43242</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="7">
+        <v>43242</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="7">
+        <v>43243</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167" s="7">
+        <v>43243</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="7">
+        <v>43244</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="7">
+        <v>43245</v>
+      </c>
+      <c r="B169" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C169" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="D169" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="7">
+        <v>43248</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="7">
+        <v>43250</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="7">
+        <v>43250</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="7">
+        <v>43250</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="7">
+        <v>43250</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="7">
+        <v>43250</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="7">
+        <v>43250</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="7">
+        <v>43252</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="7">
+        <v>43252</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="7">
+        <v>43258</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="7">
+        <v>43258</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D180" s="4"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="7">
+        <v>43258</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D181" s="4"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="7">
+        <v>43263</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="7">
+        <v>43266</v>
+      </c>
+      <c r="B183" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C183" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="D183" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="7">
+        <v>43290</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D184" s="19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" s="7">
+        <v>43290</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D185" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="7">
+        <v>43299</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="7">
+        <v>43290</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D187" s="19" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A188" s="7">
+        <v>43305</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D188" s="16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="7">
+        <v>43306</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="7">
+        <v>43306</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="7">
+        <v>43306</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="7">
+        <v>43315</v>
+      </c>
+      <c r="B192" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C192" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="D192" s="15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="7">
+        <v>43322</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D193" s="15" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="7">
+        <v>43339</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D194" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="7">
+        <v>43349</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D195" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="7">
+        <v>43355</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D196" s="15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="7">
+        <v>43357</v>
+      </c>
+      <c r="B197" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C197" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="D197" s="15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="7">
+        <v>43363</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D198" s="15" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="7">
+        <v>43364</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D199" s="15" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" s="7">
+        <v>43369</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D200" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="7">
+        <v>43369</v>
+      </c>
+      <c r="B201" t="s">
+        <v>352</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D201" s="15" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="7">
+        <v>43369</v>
+      </c>
+      <c r="B202" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C202" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="D202" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="7">
+        <v>43370</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D203" s="15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="7">
+        <v>43370</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="7">
+        <v>43377</v>
+      </c>
+      <c r="B205" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C205" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="D205" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="7">
+        <v>43389</v>
+      </c>
+      <c r="B206" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C206" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="D206" s="11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" s="7">
+        <v>43389</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D207" s="11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="7">
+        <v>43389</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D208" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="7">
+        <v>43391</v>
+      </c>
+      <c r="B209" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C209" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="D209" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="7">
+        <v>43391</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="7">
+        <v>43413</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D211" s="16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="7">
+        <v>43416</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D212" s="16" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="7">
+        <v>43416</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D213" s="16" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="7">
+        <v>43419</v>
+      </c>
+      <c r="B214" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C214" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="D214" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="7">
+        <v>43419</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D215" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="7">
+        <v>43419</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D216" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="7">
+        <v>43419</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="7">
+        <v>43426</v>
+      </c>
+      <c r="B218" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="C218" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="D218" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="7">
+        <v>43426</v>
+      </c>
+      <c r="B219" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C219" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="D219" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="7">
+        <v>43426</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D220" s="16" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="7">
+        <v>43427</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D221" s="16" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="7">
+        <v>43446</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D222" s="15" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="7">
+        <v>43448</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="7">
+        <v>43473</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D224" s="15" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A225" s="7">
+        <v>43473</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D225" s="15" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="7">
+        <v>43479</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D226" s="15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A227" s="7">
+        <v>43479</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D227" s="16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="7">
+        <v>43481</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D228" s="15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="7">
+        <v>43482</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D229" s="15" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="7">
+        <v>43486</v>
+      </c>
+      <c r="B230" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C230" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="D230" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="7">
+        <v>43496</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D231" s="15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A232" s="7">
+        <v>43496</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D232" s="15" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="7">
+        <v>43497</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="D233" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="7">
+        <v>43501</v>
+      </c>
+      <c r="B234" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C234" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="D234" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="7">
+        <v>43507</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="7">
+        <v>43509</v>
+      </c>
+      <c r="B236" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C236" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="D236" s="11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="7">
+        <v>43514</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="D237" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="7">
+        <v>43514</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D238" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="7">
+        <v>43521</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="D239" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="7">
+        <v>43530</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D240" s="7" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -4018,21 +5621,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0EB43895666D743BBE5EE80DE8AFF2D" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3898ec998cc85d3bcc261598fbbf3dc9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -4146,17 +5734,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{872D4FEA-0E1A-4A2F-890F-971ABD26DD30}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30A4E566-AAC9-451E-AA26-97377196906E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4170,17 +5774,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30A4E566-AAC9-451E-AA26-97377196906E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{872D4FEA-0E1A-4A2F-890F-971ABD26DD30}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>